--- a/data/trans_dic/P32E$amigos_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Dificultad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -870,7 +870,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$amigos_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.236446505271724</v>
+        <v>0.2364465052717239</v>
       </c>
     </row>
     <row r="5">
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1295937476985411</v>
+        <v>0.1178075006544576</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.1143211481490854</v>
+        <v>0.1141682565467121</v>
       </c>
     </row>
     <row r="6">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4536764548535333</v>
+        <v>0.4402169551151147</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.4085193488790498</v>
+        <v>0.4209106591276656</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2303105557380928</v>
+        <v>0.2303105557380927</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.2680450200823971</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09631566518793826</v>
+        <v>0.09720450158039134</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08495149363569582</v>
+        <v>0.07210497631633379</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1282474512229244</v>
+        <v>0.1244269308777174</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.417250098661149</v>
+        <v>0.4170383727790616</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5731949745271595</v>
+        <v>0.5420898922161048</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3930584560022643</v>
+        <v>0.3786580344738778</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.2295767388325557</v>
+        <v>0.2295767388325558</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.3891751999432477</v>
+        <v>0.3891751999432476</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2890878205706188</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08696261391631042</v>
+        <v>0.08321399289091348</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1668415929807108</v>
+        <v>0.166442010610136</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1570933986420756</v>
+        <v>0.1575313306690614</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4100630803968403</v>
+        <v>0.4254310580626013</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6683463575744663</v>
+        <v>0.6875477587762429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4628985455764116</v>
+        <v>0.4368323149370669</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>0.2240642725402173</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.1559444193901049</v>
+        <v>0.1559444193901048</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.2010554781919192</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08231539017382124</v>
+        <v>0.09723216849521271</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02433239521891669</v>
+        <v>0.02322767132282235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1012516387139673</v>
+        <v>0.1079009901413748</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4531619334810333</v>
+        <v>0.4674390782209028</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.402703402719093</v>
+        <v>0.3938285298284483</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3690113814633169</v>
+        <v>0.37260063020762</v>
       </c>
     </row>
     <row r="16">
@@ -783,10 +783,10 @@
         <v>0.2362308275447026</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2354892415323595</v>
+        <v>0.2354892415323596</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2360232501975153</v>
+        <v>0.2360232501975154</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1575765604777465</v>
+        <v>0.1653606973644928</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1311322802627545</v>
+        <v>0.135204250093258</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1752035201687171</v>
+        <v>0.1758393054942021</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3338082151575512</v>
+        <v>0.3383738396584019</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3725287383564092</v>
+        <v>0.3880110267834571</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3075373295351399</v>
+        <v>0.3136462820106761</v>
       </c>
     </row>
     <row r="19">
@@ -962,11 +962,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4900</v>
+        <v>4455</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>4844</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="7">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17155</v>
+        <v>16646</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>17311</v>
+        <v>17836</v>
       </c>
     </row>
     <row r="8">
@@ -1030,13 +1030,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3835</v>
+        <v>3870</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1091</v>
+        <v>926</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6753</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="11">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16612</v>
+        <v>16604</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7360</v>
+        <v>6960</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20696</v>
+        <v>19938</v>
       </c>
     </row>
     <row r="12">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2674</v>
+        <v>2559</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3051</v>
+        <v>3044</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7704</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="15">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12611</v>
+        <v>13084</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12221</v>
+        <v>12572</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22700</v>
+        <v>21422</v>
       </c>
     </row>
     <row r="16">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4371</v>
+        <v>5163</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8119</v>
+        <v>8652</v>
       </c>
     </row>
     <row r="19">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24063</v>
+        <v>24821</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10907</v>
+        <v>10666</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29590</v>
+        <v>29877</v>
       </c>
     </row>
     <row r="20">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25446</v>
+        <v>26703</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8231</v>
+        <v>8487</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>39290</v>
+        <v>39432</v>
       </c>
     </row>
     <row r="23">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>53904</v>
+        <v>54641</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23384</v>
+        <v>24356</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>68966</v>
+        <v>70336</v>
       </c>
     </row>
     <row r="24">
